--- a/techniqo/data_new_ticker/HDFCLIFE.xlsx
+++ b/techniqo/data_new_ticker/HDFCLIFE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G699"/>
+  <dimension ref="A1:G701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24851,6 +24851,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>601.95</v>
+      </c>
+      <c r="C700" t="n">
+        <v>601.95</v>
+      </c>
+      <c r="D700" t="n">
+        <v>591.05</v>
+      </c>
+      <c r="E700" t="n">
+        <v>594.2</v>
+      </c>
+      <c r="F700" t="n">
+        <v>2371934</v>
+      </c>
+      <c r="G700" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="C701" t="n">
+        <v>604.95</v>
+      </c>
+      <c r="D701" t="n">
+        <v>592.8</v>
+      </c>
+      <c r="E701" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="F701" t="n">
+        <v>2164876</v>
+      </c>
+      <c r="G701" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/HDFCLIFE.xlsx
+++ b/techniqo/data_new_ticker/HDFCLIFE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G701"/>
+  <dimension ref="A1:G703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24901,6 +24901,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>593.1</v>
+      </c>
+      <c r="C702" t="n">
+        <v>598.1</v>
+      </c>
+      <c r="D702" t="n">
+        <v>588.3</v>
+      </c>
+      <c r="E702" t="n">
+        <v>591.85</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1532457</v>
+      </c>
+      <c r="G702" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>594</v>
+      </c>
+      <c r="C703" t="n">
+        <v>594.8</v>
+      </c>
+      <c r="D703" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="E703" t="n">
+        <v>585.1</v>
+      </c>
+      <c r="F703" t="n">
+        <v>2587595</v>
+      </c>
+      <c r="G703" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
